--- a/Program-Opporunity/employment_salary_analysis/data/New_program_demand (1).xlsx
+++ b/Program-Opporunity/employment_salary_analysis/data/New_program_demand (1).xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mithu\Downloads\Demand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiachengzhang/Desktop/Research/UA-Analytics/Program-Opporunity/employment_salary_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EB16F3-1557-4765-947D-F96E60DC2CF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD510774-1464-4C4E-8E82-0AF622619DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -151,9 +150,6 @@
     <t>Clinical Laboratory Technologists and Technicians</t>
   </si>
   <si>
-    <t>PRINTER-FRIENDLY Print</t>
-  </si>
-  <si>
     <t>Financial Managers</t>
   </si>
   <si>
@@ -188,6 +184,9 @@
   </si>
   <si>
     <t>Physical Therapists</t>
+  </si>
+  <si>
+    <t>Petroleum engineering</t>
   </si>
 </sst>
 </file>
@@ -602,20 +601,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -649,7 +648,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -666,7 +665,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -683,7 +682,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -700,7 +699,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -717,7 +716,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -734,7 +733,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -751,7 +750,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -768,7 +767,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -785,7 +784,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -802,7 +801,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -819,7 +818,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -836,7 +835,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -844,7 +843,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5">
         <v>112300</v>
@@ -853,7 +852,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -870,7 +869,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -887,7 +886,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -904,9 +903,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -921,7 +920,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -938,7 +937,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -955,7 +954,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -972,7 +971,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -989,7 +988,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1040,15 +1039,15 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="D26" s="5">
         <v>876300</v>
@@ -1057,9 +1056,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -1074,15 +1073,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D28" s="3">
         <v>406100</v>
@@ -1091,9 +1090,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -1108,9 +1107,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -1125,9 +1124,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
@@ -1142,15 +1141,15 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D32" s="3">
         <v>168800</v>
@@ -1159,9 +1158,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>31</v>
@@ -1176,7 +1175,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>32</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>33</v>
       </c>
@@ -1210,7 +1209,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>34</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
